--- a/data/trans_camb/P14B34-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P14B34-Habitat-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4186285234900842</v>
+        <v>0.3900797638379308</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3911264801118258</v>
+        <v>0.393819599612596</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.172688281302193</v>
+        <v>1.203149263172871</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.977450534695956</v>
+        <v>1.959516737681939</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.039474184834336</v>
+        <v>2.104571664793259</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.758414228251048</v>
+        <v>2.683816129731428</v>
       </c>
     </row>
     <row r="7">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.050914234734497</v>
+        <v>1.062590921787404</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5160575594607925</v>
+        <v>0.5434495233675588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5829383254289904</v>
+        <v>0.610100833329255</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.744582662961872</v>
+        <v>2.839957639404051</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.712491327435981</v>
+        <v>1.836874696480268</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.631880380665942</v>
+        <v>1.622367447620208</v>
       </c>
     </row>
     <row r="13">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6947381754395613</v>
+        <v>0.6879240246627213</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6230597797291518</v>
+        <v>0.6398644148898365</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4001895342981018</v>
+        <v>0.4031645450664577</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.715490031480305</v>
+        <v>2.64853715567696</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.51547054175107</v>
+        <v>2.505470092136029</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.703685119787384</v>
+        <v>1.781081813712688</v>
       </c>
     </row>
     <row r="19">
@@ -890,7 +890,7 @@
         <v>1.14841573111333</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5393656537145947</v>
+        <v>0.5393656537145948</v>
       </c>
     </row>
     <row r="23">
@@ -901,13 +901,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.419898417435259</v>
+        <v>1.422361774900769</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.55560292601091</v>
+        <v>0.6216096796296998</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2171519453263526</v>
+        <v>0.2343284659319068</v>
       </c>
     </row>
     <row r="24">
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.498300727196904</v>
+        <v>3.592968898240023</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.973624747183868</v>
+        <v>2.043027568704713</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.161148423248453</v>
+        <v>1.161637759888729</v>
       </c>
     </row>
     <row r="25">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.301033410330223</v>
+        <v>1.270930758254853</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.795663170362374</v>
+        <v>0.8124139005835729</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7455330612547365</v>
+        <v>0.7384729388097846</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.171424533858039</v>
+        <v>2.250756487543995</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.504343890446197</v>
+        <v>1.500994374347743</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.342369776924862</v>
+        <v>1.338683341780855</v>
       </c>
     </row>
     <row r="31">
